--- a/Lecture_8/Assignment_6/data_univ.xlsx
+++ b/Lecture_8/Assignment_6/data_univ.xlsx
@@ -3277,10 +3277,10 @@
         <v>153</v>
       </c>
       <c r="E88">
-        <v>-12.2216386</v>
+        <v>-12.0165774</v>
       </c>
       <c r="F88">
-        <v>-76.9767202</v>
+        <v>-76.89017129999999</v>
       </c>
       <c r="G88">
         <v>-11.7851149934921</v>
